--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-208_イベント一覧(サンプル＆ガイド).xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-208_イベント一覧(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1121,16 +1121,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1140,6 +1130,13 @@
   </si>
   <si>
     <t>の下に提供されています。</t>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1570,45 +1567,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1621,8 +1579,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1637,6 +1601,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3770,9 +3767,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="11"/>
       <c r="J31" s="16"/>
-      <c r="R31" s="17" t="s">
-        <v>109</v>
-      </c>
+      <c r="R31" s="17"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="11"/>
@@ -3812,20 +3807,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>110</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>111</v>
       </c>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="22"/>
       <c r="R39" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S39" s="21"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4300,7 +4299,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4847,24 +4846,6 @@
     <row r="37" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:Y18"/>
-    <mergeCell ref="Z18:AH18"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:Y20"/>
-    <mergeCell ref="Z20:AH20"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:Y16"/>
-    <mergeCell ref="Z16:AH16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:Y17"/>
-    <mergeCell ref="Z17:AH17"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:Y14"/>
-    <mergeCell ref="Z14:AH14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:Y15"/>
-    <mergeCell ref="Z15:AH15"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="I24:Y24"/>
     <mergeCell ref="Z24:AH24"/>
@@ -4880,6 +4861,24 @@
     <mergeCell ref="I22:Y22"/>
     <mergeCell ref="Z22:AH22"/>
     <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:Y14"/>
+    <mergeCell ref="Z14:AH14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:Y15"/>
+    <mergeCell ref="Z15:AH15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:Y16"/>
+    <mergeCell ref="Z16:AH16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:Y17"/>
+    <mergeCell ref="Z17:AH17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:Y18"/>
+    <mergeCell ref="Z18:AH18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:Y20"/>
+    <mergeCell ref="Z20:AH20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -4912,31 +4911,31 @@
       </c>
     </row>
     <row r="3" spans="1:49" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
       <c r="T3" s="28" t="s">
         <v>13</v>
       </c>
@@ -4966,1221 +4965,1221 @@
       <c r="AL3" s="29"/>
       <c r="AM3" s="29"/>
       <c r="AN3" s="30"/>
-      <c r="AO3" s="53" t="s">
+      <c r="AO3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="52" t="s">
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="54" t="s">
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="56"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="45"/>
     </row>
     <row r="4" spans="1:49" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47" t="s">
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="47" t="s">
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="47" t="s">
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="47" t="s">
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="50" t="s">
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="42" t="s">
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="37" t="s">
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="39"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="56"/>
     </row>
     <row r="5" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47" t="s">
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="47" t="s">
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="47" t="s">
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="47" t="s">
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="50" t="s">
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="40" t="s">
+      <c r="AP5" s="37"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="34" t="s">
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="AV5" s="35"/>
-      <c r="AW5" s="36"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="50"/>
     </row>
     <row r="6" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="47" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="47" t="s">
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="47" t="s">
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="47" t="s">
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="49"/>
-      <c r="AO6" s="50" t="s">
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="AP6" s="50"/>
-      <c r="AQ6" s="50"/>
-      <c r="AR6" s="40" t="s">
+      <c r="AP6" s="37"/>
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="41"/>
-      <c r="AU6" s="34" t="s">
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="36"/>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="50"/>
     </row>
     <row r="7" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="47" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="47" t="s">
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="47" t="s">
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="47" t="s">
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="50" t="s">
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="40" t="s">
+      <c r="AP7" s="37"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="34" t="s">
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="AV7" s="35"/>
-      <c r="AW7" s="36"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="50"/>
     </row>
     <row r="8" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47" t="s">
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="47" t="s">
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="47" t="s">
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="47" t="s">
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="50" t="s">
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="40" t="s">
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="AS8" s="41"/>
-      <c r="AT8" s="41"/>
-      <c r="AU8" s="34" t="s">
+      <c r="AS8" s="47"/>
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="AV8" s="35"/>
-      <c r="AW8" s="36"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="50"/>
     </row>
     <row r="9" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="47" t="s">
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="47" t="s">
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="47" t="s">
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="47" t="s">
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="48"/>
-      <c r="AN9" s="49"/>
-      <c r="AO9" s="50" t="s">
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="40" t="s">
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="41"/>
-      <c r="AU9" s="34" t="s">
+      <c r="AS9" s="47"/>
+      <c r="AT9" s="47"/>
+      <c r="AU9" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="36"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="50"/>
     </row>
     <row r="10" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46" t="s">
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="47" t="s">
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="47" t="s">
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="47" t="s">
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="47" t="s">
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="49"/>
-      <c r="AO10" s="51" t="s">
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="40" t="s">
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="34" t="s">
+      <c r="AS10" s="47"/>
+      <c r="AT10" s="47"/>
+      <c r="AU10" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="AV10" s="35"/>
-      <c r="AW10" s="36"/>
+      <c r="AV10" s="49"/>
+      <c r="AW10" s="50"/>
     </row>
     <row r="11" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46" t="s">
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="47" t="s">
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="47" t="s">
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="47" t="s">
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="47" t="s">
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="49"/>
-      <c r="AO11" s="51" t="s">
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="51"/>
-      <c r="AR11" s="40" t="s">
+      <c r="AP11" s="46"/>
+      <c r="AQ11" s="46"/>
+      <c r="AR11" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
-      <c r="AU11" s="34" t="s">
+      <c r="AS11" s="47"/>
+      <c r="AT11" s="47"/>
+      <c r="AU11" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="AV11" s="35"/>
-      <c r="AW11" s="36"/>
+      <c r="AV11" s="49"/>
+      <c r="AW11" s="50"/>
     </row>
     <row r="12" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="47" t="s">
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="47" t="s">
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="47" t="s">
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="47" t="s">
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="50" t="s">
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="41" t="s">
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="34" t="s">
+      <c r="AS12" s="47"/>
+      <c r="AT12" s="47"/>
+      <c r="AU12" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="AV12" s="35"/>
-      <c r="AW12" s="36"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="50"/>
     </row>
     <row r="13" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="49"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="41"/>
-      <c r="AU13" s="34"/>
-      <c r="AV13" s="35"/>
-      <c r="AW13" s="36"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="37"/>
+      <c r="AP13" s="37"/>
+      <c r="AQ13" s="37"/>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="47"/>
+      <c r="AT13" s="47"/>
+      <c r="AU13" s="48"/>
+      <c r="AV13" s="49"/>
+      <c r="AW13" s="50"/>
     </row>
     <row r="14" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="49"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
-      <c r="AQ14" s="50"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="41"/>
-      <c r="AU14" s="34"/>
-      <c r="AV14" s="35"/>
-      <c r="AW14" s="36"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="37"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="47"/>
+      <c r="AS14" s="47"/>
+      <c r="AT14" s="47"/>
+      <c r="AU14" s="48"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="50"/>
     </row>
     <row r="15" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="49"/>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="48"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="49"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="50"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="34"/>
-      <c r="AV15" s="35"/>
-      <c r="AW15" s="36"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="37"/>
+      <c r="AP15" s="37"/>
+      <c r="AQ15" s="37"/>
+      <c r="AR15" s="47"/>
+      <c r="AS15" s="47"/>
+      <c r="AT15" s="47"/>
+      <c r="AU15" s="48"/>
+      <c r="AV15" s="49"/>
+      <c r="AW15" s="50"/>
     </row>
     <row r="16" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="49"/>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="49"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="41"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="35"/>
-      <c r="AW16" s="36"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="37"/>
+      <c r="AQ16" s="37"/>
+      <c r="AR16" s="47"/>
+      <c r="AS16" s="47"/>
+      <c r="AT16" s="47"/>
+      <c r="AU16" s="48"/>
+      <c r="AV16" s="49"/>
+      <c r="AW16" s="50"/>
     </row>
     <row r="17" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="49"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="49"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="50"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="41"/>
-      <c r="AU17" s="34"/>
-      <c r="AV17" s="35"/>
-      <c r="AW17" s="36"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="47"/>
+      <c r="AS17" s="47"/>
+      <c r="AT17" s="47"/>
+      <c r="AU17" s="48"/>
+      <c r="AV17" s="49"/>
+      <c r="AW17" s="50"/>
     </row>
     <row r="18" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="49"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="35"/>
-      <c r="AW18" s="36"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="47"/>
+      <c r="AS18" s="47"/>
+      <c r="AT18" s="47"/>
+      <c r="AU18" s="48"/>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="50"/>
     </row>
     <row r="19" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="49"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="48"/>
-      <c r="AN19" s="49"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="50"/>
-      <c r="AQ19" s="50"/>
-      <c r="AR19" s="41"/>
-      <c r="AS19" s="41"/>
-      <c r="AT19" s="41"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="35"/>
-      <c r="AW19" s="36"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="37"/>
+      <c r="AP19" s="37"/>
+      <c r="AQ19" s="37"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="48"/>
+      <c r="AV19" s="49"/>
+      <c r="AW19" s="50"/>
     </row>
     <row r="20" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="49"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="49"/>
-      <c r="AO20" s="50"/>
-      <c r="AP20" s="50"/>
-      <c r="AQ20" s="50"/>
-      <c r="AR20" s="41"/>
-      <c r="AS20" s="41"/>
-      <c r="AT20" s="41"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="35"/>
-      <c r="AW20" s="36"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="37"/>
+      <c r="AP20" s="37"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="47"/>
+      <c r="AS20" s="47"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="49"/>
+      <c r="AW20" s="50"/>
     </row>
     <row r="21" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="49"/>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="48"/>
-      <c r="AN21" s="49"/>
-      <c r="AO21" s="50"/>
-      <c r="AP21" s="50"/>
-      <c r="AQ21" s="50"/>
-      <c r="AR21" s="41"/>
-      <c r="AS21" s="41"/>
-      <c r="AT21" s="41"/>
-      <c r="AU21" s="34"/>
-      <c r="AV21" s="35"/>
-      <c r="AW21" s="36"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="34"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="37"/>
+      <c r="AP21" s="37"/>
+      <c r="AQ21" s="37"/>
+      <c r="AR21" s="47"/>
+      <c r="AS21" s="47"/>
+      <c r="AT21" s="47"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="49"/>
+      <c r="AW21" s="50"/>
     </row>
     <row r="22" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="49"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="48"/>
-      <c r="AN22" s="49"/>
-      <c r="AO22" s="50"/>
-      <c r="AP22" s="50"/>
-      <c r="AQ22" s="50"/>
-      <c r="AR22" s="41"/>
-      <c r="AS22" s="41"/>
-      <c r="AT22" s="41"/>
-      <c r="AU22" s="34"/>
-      <c r="AV22" s="35"/>
-      <c r="AW22" s="36"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="34"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="37"/>
+      <c r="AP22" s="37"/>
+      <c r="AQ22" s="37"/>
+      <c r="AR22" s="47"/>
+      <c r="AS22" s="47"/>
+      <c r="AT22" s="47"/>
+      <c r="AU22" s="48"/>
+      <c r="AV22" s="49"/>
+      <c r="AW22" s="50"/>
     </row>
     <row r="23" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="48"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="50"/>
-      <c r="AP23" s="50"/>
-      <c r="AQ23" s="50"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="34"/>
-      <c r="AV23" s="35"/>
-      <c r="AW23" s="36"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="36"/>
+      <c r="AO23" s="37"/>
+      <c r="AP23" s="37"/>
+      <c r="AQ23" s="37"/>
+      <c r="AR23" s="47"/>
+      <c r="AS23" s="47"/>
+      <c r="AT23" s="47"/>
+      <c r="AU23" s="48"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="50"/>
     </row>
     <row r="24" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -6292,6 +6291,192 @@
     </row>
   </sheetData>
   <mergeCells count="210">
+    <mergeCell ref="AU16:AW16"/>
+    <mergeCell ref="AU17:AW17"/>
+    <mergeCell ref="AU18:AW18"/>
+    <mergeCell ref="AU19:AW19"/>
+    <mergeCell ref="AU20:AW20"/>
+    <mergeCell ref="AU21:AW21"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AU7:AW7"/>
+    <mergeCell ref="AU8:AW8"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AU10:AW10"/>
+    <mergeCell ref="AU11:AW11"/>
+    <mergeCell ref="AU12:AW12"/>
+    <mergeCell ref="AU22:AW22"/>
+    <mergeCell ref="AU23:AW23"/>
+    <mergeCell ref="AR9:AT9"/>
+    <mergeCell ref="AR10:AT10"/>
+    <mergeCell ref="AR11:AT11"/>
+    <mergeCell ref="AR12:AT12"/>
+    <mergeCell ref="AR13:AT13"/>
+    <mergeCell ref="AR4:AT4"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AR7:AT7"/>
+    <mergeCell ref="AR8:AT8"/>
+    <mergeCell ref="AR21:AT21"/>
+    <mergeCell ref="AR22:AT22"/>
+    <mergeCell ref="AR23:AT23"/>
+    <mergeCell ref="AR14:AT14"/>
+    <mergeCell ref="AR15:AT15"/>
+    <mergeCell ref="AR16:AT16"/>
+    <mergeCell ref="AR17:AT17"/>
+    <mergeCell ref="AR18:AT18"/>
+    <mergeCell ref="AR20:AT20"/>
+    <mergeCell ref="AU13:AW13"/>
+    <mergeCell ref="AU14:AW14"/>
+    <mergeCell ref="AU15:AW15"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I23:S23"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="AJ23:AN23"/>
+    <mergeCell ref="AO23:AQ23"/>
+    <mergeCell ref="Y23:AD23"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:S22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="AJ22:AN22"/>
+    <mergeCell ref="AO22:AQ22"/>
+    <mergeCell ref="Y22:AD22"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="AJ21:AN21"/>
+    <mergeCell ref="AO21:AQ21"/>
+    <mergeCell ref="Y21:AD21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:S21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="I20:S20"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="AJ20:AN20"/>
+    <mergeCell ref="AO20:AQ20"/>
+    <mergeCell ref="Y20:AD20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I19:S19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="AJ19:AN19"/>
+    <mergeCell ref="AO19:AQ19"/>
+    <mergeCell ref="Y19:AD19"/>
+    <mergeCell ref="AR19:AT19"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="I18:S18"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="AJ18:AN18"/>
+    <mergeCell ref="AO18:AQ18"/>
+    <mergeCell ref="Y18:AD18"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="AJ17:AN17"/>
+    <mergeCell ref="AO17:AQ17"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="I17:S17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="AJ16:AN16"/>
+    <mergeCell ref="AO16:AQ16"/>
+    <mergeCell ref="Y16:AD16"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="I16:S16"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:S4"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="Y6:AD6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="AJ5:AN5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:S5"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="AJ15:AN15"/>
+    <mergeCell ref="AO15:AQ15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AJ14:AN14"/>
+    <mergeCell ref="AO14:AQ14"/>
+    <mergeCell ref="Y14:AD14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="AJ13:AN13"/>
+    <mergeCell ref="AO13:AQ13"/>
+    <mergeCell ref="Y13:AD13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="AJ12:AN12"/>
+    <mergeCell ref="AO12:AQ12"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="AJ11:AN11"/>
+    <mergeCell ref="AO11:AQ11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="AJ10:AN10"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="AJ9:AN9"/>
+    <mergeCell ref="AO9:AQ9"/>
+    <mergeCell ref="Y9:AD9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:S9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="AE9:AI9"/>
     <mergeCell ref="AJ7:AN7"/>
     <mergeCell ref="AO7:AQ7"/>
     <mergeCell ref="Y7:AD7"/>
@@ -6316,192 +6501,6 @@
     <mergeCell ref="I3:S3"/>
     <mergeCell ref="T3:X3"/>
     <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AJ10:AN10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="Y10:AD10"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:S10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="AE10:AI10"/>
-    <mergeCell ref="AJ9:AN9"/>
-    <mergeCell ref="AO9:AQ9"/>
-    <mergeCell ref="Y9:AD9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:S9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="AJ12:AN12"/>
-    <mergeCell ref="AO12:AQ12"/>
-    <mergeCell ref="Y12:AD12"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="AJ11:AN11"/>
-    <mergeCell ref="AO11:AQ11"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="AJ14:AN14"/>
-    <mergeCell ref="AO14:AQ14"/>
-    <mergeCell ref="Y14:AD14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="AJ13:AN13"/>
-    <mergeCell ref="AO13:AQ13"/>
-    <mergeCell ref="Y13:AD13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="AJ15:AN15"/>
-    <mergeCell ref="AO15:AQ15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:S4"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="Y6:AD6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="AE5:AI5"/>
-    <mergeCell ref="AJ5:AN5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:S5"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="I18:S18"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="AJ18:AN18"/>
-    <mergeCell ref="AO18:AQ18"/>
-    <mergeCell ref="Y18:AD18"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="AJ17:AN17"/>
-    <mergeCell ref="AO17:AQ17"/>
-    <mergeCell ref="Y17:AD17"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="I17:S17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="AJ16:AN16"/>
-    <mergeCell ref="AO16:AQ16"/>
-    <mergeCell ref="Y16:AD16"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="I16:S16"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I19:S19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="AJ19:AN19"/>
-    <mergeCell ref="AO19:AQ19"/>
-    <mergeCell ref="Y19:AD19"/>
-    <mergeCell ref="AR19:AT19"/>
-    <mergeCell ref="AJ21:AN21"/>
-    <mergeCell ref="AO21:AQ21"/>
-    <mergeCell ref="Y21:AD21"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I21:S21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="I20:S20"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="AJ20:AN20"/>
-    <mergeCell ref="AO20:AQ20"/>
-    <mergeCell ref="Y20:AD20"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I23:S23"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="AJ23:AN23"/>
-    <mergeCell ref="AO23:AQ23"/>
-    <mergeCell ref="Y23:AD23"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:S22"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="AJ22:AN22"/>
-    <mergeCell ref="AO22:AQ22"/>
-    <mergeCell ref="Y22:AD22"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="AU22:AW22"/>
-    <mergeCell ref="AU23:AW23"/>
-    <mergeCell ref="AR9:AT9"/>
-    <mergeCell ref="AR10:AT10"/>
-    <mergeCell ref="AR11:AT11"/>
-    <mergeCell ref="AR12:AT12"/>
-    <mergeCell ref="AR13:AT13"/>
-    <mergeCell ref="AR4:AT4"/>
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AR7:AT7"/>
-    <mergeCell ref="AR8:AT8"/>
-    <mergeCell ref="AR21:AT21"/>
-    <mergeCell ref="AR22:AT22"/>
-    <mergeCell ref="AR23:AT23"/>
-    <mergeCell ref="AR14:AT14"/>
-    <mergeCell ref="AR15:AT15"/>
-    <mergeCell ref="AR16:AT16"/>
-    <mergeCell ref="AR17:AT17"/>
-    <mergeCell ref="AR18:AT18"/>
-    <mergeCell ref="AR20:AT20"/>
-    <mergeCell ref="AU13:AW13"/>
-    <mergeCell ref="AU14:AW14"/>
-    <mergeCell ref="AU15:AW15"/>
-    <mergeCell ref="AU16:AW16"/>
-    <mergeCell ref="AU17:AW17"/>
-    <mergeCell ref="AU18:AW18"/>
-    <mergeCell ref="AU19:AW19"/>
-    <mergeCell ref="AU20:AW20"/>
-    <mergeCell ref="AU21:AW21"/>
-    <mergeCell ref="AU4:AW4"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AU7:AW7"/>
-    <mergeCell ref="AU8:AW8"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AU10:AW10"/>
-    <mergeCell ref="AU11:AW11"/>
-    <mergeCell ref="AU12:AW12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-208_イベント一覧(サンプル＆ガイド).xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-208_イベント一覧(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -1121,6 +1121,16 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1130,13 +1140,6 @@
   </si>
   <si>
     <t>の下に提供されています。</t>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1567,6 +1570,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1579,14 +1621,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1601,39 +1637,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3767,7 +3770,9 @@
       <c r="G31" s="15"/>
       <c r="H31" s="11"/>
       <c r="J31" s="16"/>
-      <c r="R31" s="17"/>
+      <c r="R31" s="17" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="11"/>
@@ -3807,24 +3812,20 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="22"/>
       <c r="R39" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S39" s="21"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4299,7 +4300,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4846,6 +4847,24 @@
     <row r="37" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:Y18"/>
+    <mergeCell ref="Z18:AH18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:Y20"/>
+    <mergeCell ref="Z20:AH20"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:Y16"/>
+    <mergeCell ref="Z16:AH16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:Y17"/>
+    <mergeCell ref="Z17:AH17"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:Y14"/>
+    <mergeCell ref="Z14:AH14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:Y15"/>
+    <mergeCell ref="Z15:AH15"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="I24:Y24"/>
     <mergeCell ref="Z24:AH24"/>
@@ -4861,24 +4880,6 @@
     <mergeCell ref="I22:Y22"/>
     <mergeCell ref="Z22:AH22"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:Y14"/>
-    <mergeCell ref="Z14:AH14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:Y15"/>
-    <mergeCell ref="Z15:AH15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:Y16"/>
-    <mergeCell ref="Z16:AH16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:Y17"/>
-    <mergeCell ref="Z17:AH17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:Y18"/>
-    <mergeCell ref="Z18:AH18"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:Y20"/>
-    <mergeCell ref="Z20:AH20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -4911,31 +4912,31 @@
       </c>
     </row>
     <row r="3" spans="1:49" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
       <c r="T3" s="28" t="s">
         <v>13</v>
       </c>
@@ -4965,1221 +4966,1221 @@
       <c r="AL3" s="29"/>
       <c r="AM3" s="29"/>
       <c r="AN3" s="30"/>
-      <c r="AO3" s="42" t="s">
+      <c r="AO3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="41" t="s">
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="43" t="s">
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="53"/>
+      <c r="AU3" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="45"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="56"/>
     </row>
     <row r="4" spans="1:49" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="34" t="s">
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="34" t="s">
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="34" t="s">
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="34" t="s">
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="37" t="s">
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="52" t="s">
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="54" t="s">
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="56"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="39"/>
     </row>
     <row r="5" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="34" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="34" t="s">
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="34" t="s">
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="37" t="s">
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="AP5" s="37"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="51" t="s">
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="48" t="s">
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="50"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="36"/>
     </row>
     <row r="6" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="34" t="s">
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="34" t="s">
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="34" t="s">
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="34" t="s">
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="37" t="s">
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="AP6" s="37"/>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="51" t="s">
+      <c r="AP6" s="50"/>
+      <c r="AQ6" s="50"/>
+      <c r="AR6" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="48" t="s">
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AV6" s="49"/>
-      <c r="AW6" s="50"/>
+      <c r="AV6" s="35"/>
+      <c r="AW6" s="36"/>
     </row>
     <row r="7" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="34" t="s">
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="34" t="s">
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="34" t="s">
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="34" t="s">
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="37" t="s">
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="AP7" s="37"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="51" t="s">
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="AS7" s="47"/>
-      <c r="AT7" s="47"/>
-      <c r="AU7" s="48" t="s">
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AV7" s="49"/>
-      <c r="AW7" s="50"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="36"/>
     </row>
     <row r="8" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40" t="s">
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="34" t="s">
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="34" t="s">
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="34" t="s">
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="34" t="s">
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="37" t="s">
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="51" t="s">
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="AS8" s="47"/>
-      <c r="AT8" s="47"/>
-      <c r="AU8" s="48" t="s">
+      <c r="AS8" s="41"/>
+      <c r="AT8" s="41"/>
+      <c r="AU8" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AV8" s="49"/>
-      <c r="AW8" s="50"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="36"/>
     </row>
     <row r="9" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="34" t="s">
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="34" t="s">
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="34" t="s">
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="34" t="s">
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="37" t="s">
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="51" t="s">
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="AS9" s="47"/>
-      <c r="AT9" s="47"/>
-      <c r="AU9" s="48" t="s">
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="AV9" s="49"/>
-      <c r="AW9" s="50"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="36"/>
     </row>
     <row r="10" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="34" t="s">
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="34" t="s">
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="34" t="s">
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="34" t="s">
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="46" t="s">
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="46"/>
-      <c r="AR10" s="51" t="s">
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AS10" s="47"/>
-      <c r="AT10" s="47"/>
-      <c r="AU10" s="48" t="s">
+      <c r="AS10" s="41"/>
+      <c r="AT10" s="41"/>
+      <c r="AU10" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="AV10" s="49"/>
-      <c r="AW10" s="50"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="36"/>
     </row>
     <row r="11" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40" t="s">
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="34" t="s">
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="34" t="s">
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="34" t="s">
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="34" t="s">
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="46" t="s">
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="AP11" s="46"/>
-      <c r="AQ11" s="46"/>
-      <c r="AR11" s="51" t="s">
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="AS11" s="47"/>
-      <c r="AT11" s="47"/>
-      <c r="AU11" s="48" t="s">
+      <c r="AS11" s="41"/>
+      <c r="AT11" s="41"/>
+      <c r="AU11" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AV11" s="49"/>
-      <c r="AW11" s="50"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="36"/>
     </row>
     <row r="12" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="34" t="s">
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="34" t="s">
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="34" t="s">
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="34" t="s">
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="37" t="s">
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AP12" s="37"/>
-      <c r="AQ12" s="37"/>
-      <c r="AR12" s="47" t="s">
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AS12" s="47"/>
-      <c r="AT12" s="47"/>
-      <c r="AU12" s="48" t="s">
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="41"/>
+      <c r="AU12" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="50"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="36"/>
     </row>
     <row r="13" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47"/>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="49"/>
-      <c r="AW13" s="50"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="34"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="36"/>
     </row>
     <row r="14" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="47"/>
-      <c r="AS14" s="47"/>
-      <c r="AT14" s="47"/>
-      <c r="AU14" s="48"/>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="50"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="41"/>
+      <c r="AU14" s="34"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="36"/>
     </row>
     <row r="15" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="47"/>
-      <c r="AS15" s="47"/>
-      <c r="AT15" s="47"/>
-      <c r="AU15" s="48"/>
-      <c r="AV15" s="49"/>
-      <c r="AW15" s="50"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="47"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="35"/>
+      <c r="AW15" s="36"/>
     </row>
     <row r="16" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="47"/>
-      <c r="AS16" s="47"/>
-      <c r="AT16" s="47"/>
-      <c r="AU16" s="48"/>
-      <c r="AV16" s="49"/>
-      <c r="AW16" s="50"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="49"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="41"/>
+      <c r="AT16" s="41"/>
+      <c r="AU16" s="34"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="36"/>
     </row>
     <row r="17" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="47"/>
-      <c r="AS17" s="47"/>
-      <c r="AT17" s="47"/>
-      <c r="AU17" s="48"/>
-      <c r="AV17" s="49"/>
-      <c r="AW17" s="50"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="41"/>
+      <c r="AT17" s="41"/>
+      <c r="AU17" s="34"/>
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="36"/>
     </row>
     <row r="18" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="47"/>
-      <c r="AS18" s="47"/>
-      <c r="AT18" s="47"/>
-      <c r="AU18" s="48"/>
-      <c r="AV18" s="49"/>
-      <c r="AW18" s="50"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="41"/>
+      <c r="AT18" s="41"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="36"/>
     </row>
     <row r="19" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="37"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
-      <c r="AT19" s="47"/>
-      <c r="AU19" s="48"/>
-      <c r="AV19" s="49"/>
-      <c r="AW19" s="50"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="41"/>
+      <c r="AS19" s="41"/>
+      <c r="AT19" s="41"/>
+      <c r="AU19" s="34"/>
+      <c r="AV19" s="35"/>
+      <c r="AW19" s="36"/>
     </row>
     <row r="20" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="35"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="47"/>
-      <c r="AS20" s="47"/>
-      <c r="AT20" s="47"/>
-      <c r="AU20" s="48"/>
-      <c r="AV20" s="49"/>
-      <c r="AW20" s="50"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="50"/>
+      <c r="AP20" s="50"/>
+      <c r="AQ20" s="50"/>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="41"/>
+      <c r="AT20" s="41"/>
+      <c r="AU20" s="34"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="36"/>
     </row>
     <row r="21" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="47"/>
-      <c r="AS21" s="47"/>
-      <c r="AT21" s="47"/>
-      <c r="AU21" s="48"/>
-      <c r="AV21" s="49"/>
-      <c r="AW21" s="50"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="50"/>
+      <c r="AP21" s="50"/>
+      <c r="AQ21" s="50"/>
+      <c r="AR21" s="41"/>
+      <c r="AS21" s="41"/>
+      <c r="AT21" s="41"/>
+      <c r="AU21" s="34"/>
+      <c r="AV21" s="35"/>
+      <c r="AW21" s="36"/>
     </row>
     <row r="22" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="37"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="47"/>
-      <c r="AS22" s="47"/>
-      <c r="AT22" s="47"/>
-      <c r="AU22" s="48"/>
-      <c r="AV22" s="49"/>
-      <c r="AW22" s="50"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="47"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="49"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="41"/>
+      <c r="AS22" s="41"/>
+      <c r="AT22" s="41"/>
+      <c r="AU22" s="34"/>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="36"/>
     </row>
     <row r="23" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="37"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="47"/>
-      <c r="AS23" s="47"/>
-      <c r="AT23" s="47"/>
-      <c r="AU23" s="48"/>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="50"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="50"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="34"/>
+      <c r="AV23" s="35"/>
+      <c r="AW23" s="36"/>
     </row>
     <row r="24" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -6291,21 +6292,177 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="AU16:AW16"/>
-    <mergeCell ref="AU17:AW17"/>
-    <mergeCell ref="AU18:AW18"/>
-    <mergeCell ref="AU19:AW19"/>
-    <mergeCell ref="AU20:AW20"/>
-    <mergeCell ref="AU21:AW21"/>
-    <mergeCell ref="AU4:AW4"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AU7:AW7"/>
-    <mergeCell ref="AU8:AW8"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AU10:AW10"/>
-    <mergeCell ref="AU11:AW11"/>
-    <mergeCell ref="AU12:AW12"/>
+    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="AO7:AQ7"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:S7"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AW3"/>
+    <mergeCell ref="AJ8:AN8"/>
+    <mergeCell ref="AO8:AQ8"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="AE8:AI8"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AJ10:AN10"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="AJ9:AN9"/>
+    <mergeCell ref="AO9:AQ9"/>
+    <mergeCell ref="Y9:AD9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:S9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="AJ12:AN12"/>
+    <mergeCell ref="AO12:AQ12"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="AJ11:AN11"/>
+    <mergeCell ref="AO11:AQ11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="AJ14:AN14"/>
+    <mergeCell ref="AO14:AQ14"/>
+    <mergeCell ref="Y14:AD14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="AJ13:AN13"/>
+    <mergeCell ref="AO13:AQ13"/>
+    <mergeCell ref="Y13:AD13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="AJ15:AN15"/>
+    <mergeCell ref="AO15:AQ15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:S4"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="Y6:AD6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="AJ5:AN5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:S5"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="I18:S18"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="AJ18:AN18"/>
+    <mergeCell ref="AO18:AQ18"/>
+    <mergeCell ref="Y18:AD18"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="AJ17:AN17"/>
+    <mergeCell ref="AO17:AQ17"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="I17:S17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="AJ16:AN16"/>
+    <mergeCell ref="AO16:AQ16"/>
+    <mergeCell ref="Y16:AD16"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="I16:S16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I19:S19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="AJ19:AN19"/>
+    <mergeCell ref="AO19:AQ19"/>
+    <mergeCell ref="Y19:AD19"/>
+    <mergeCell ref="AR19:AT19"/>
+    <mergeCell ref="AJ21:AN21"/>
+    <mergeCell ref="AO21:AQ21"/>
+    <mergeCell ref="Y21:AD21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:S21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="I20:S20"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="AJ20:AN20"/>
+    <mergeCell ref="AO20:AQ20"/>
+    <mergeCell ref="Y20:AD20"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I23:S23"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="AJ23:AN23"/>
+    <mergeCell ref="AO23:AQ23"/>
+    <mergeCell ref="Y23:AD23"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:S22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="AJ22:AN22"/>
+    <mergeCell ref="AO22:AQ22"/>
+    <mergeCell ref="Y22:AD22"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="AU22:AW22"/>
     <mergeCell ref="AU23:AW23"/>
     <mergeCell ref="AR9:AT9"/>
@@ -6330,177 +6487,21 @@
     <mergeCell ref="AU13:AW13"/>
     <mergeCell ref="AU14:AW14"/>
     <mergeCell ref="AU15:AW15"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I23:S23"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="AJ23:AN23"/>
-    <mergeCell ref="AO23:AQ23"/>
-    <mergeCell ref="Y23:AD23"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:S22"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="AJ22:AN22"/>
-    <mergeCell ref="AO22:AQ22"/>
-    <mergeCell ref="Y22:AD22"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="AJ21:AN21"/>
-    <mergeCell ref="AO21:AQ21"/>
-    <mergeCell ref="Y21:AD21"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I21:S21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="I20:S20"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="AJ20:AN20"/>
-    <mergeCell ref="AO20:AQ20"/>
-    <mergeCell ref="Y20:AD20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I19:S19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="AJ19:AN19"/>
-    <mergeCell ref="AO19:AQ19"/>
-    <mergeCell ref="Y19:AD19"/>
-    <mergeCell ref="AR19:AT19"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="I18:S18"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="AJ18:AN18"/>
-    <mergeCell ref="AO18:AQ18"/>
-    <mergeCell ref="Y18:AD18"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="AJ17:AN17"/>
-    <mergeCell ref="AO17:AQ17"/>
-    <mergeCell ref="Y17:AD17"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="I17:S17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="AJ16:AN16"/>
-    <mergeCell ref="AO16:AQ16"/>
-    <mergeCell ref="Y16:AD16"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="I16:S16"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:S4"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="Y6:AD6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="AE5:AI5"/>
-    <mergeCell ref="AJ5:AN5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:S5"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="AJ15:AN15"/>
-    <mergeCell ref="AO15:AQ15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AJ14:AN14"/>
-    <mergeCell ref="AO14:AQ14"/>
-    <mergeCell ref="Y14:AD14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="AJ13:AN13"/>
-    <mergeCell ref="AO13:AQ13"/>
-    <mergeCell ref="Y13:AD13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="AJ12:AN12"/>
-    <mergeCell ref="AO12:AQ12"/>
-    <mergeCell ref="Y12:AD12"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="AJ11:AN11"/>
-    <mergeCell ref="AO11:AQ11"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="AJ10:AN10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="Y10:AD10"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:S10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="AE10:AI10"/>
-    <mergeCell ref="AJ9:AN9"/>
-    <mergeCell ref="AO9:AQ9"/>
-    <mergeCell ref="Y9:AD9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:S9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="AJ7:AN7"/>
-    <mergeCell ref="AO7:AQ7"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:S7"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AW3"/>
-    <mergeCell ref="AJ8:AN8"/>
-    <mergeCell ref="AO8:AQ8"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="I8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="AE8:AI8"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AU16:AW16"/>
+    <mergeCell ref="AU17:AW17"/>
+    <mergeCell ref="AU18:AW18"/>
+    <mergeCell ref="AU19:AW19"/>
+    <mergeCell ref="AU20:AW20"/>
+    <mergeCell ref="AU21:AW21"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AU7:AW7"/>
+    <mergeCell ref="AU8:AW8"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AU10:AW10"/>
+    <mergeCell ref="AU11:AW11"/>
+    <mergeCell ref="AU12:AW12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-208_イベント一覧(サンプル＆ガイド).xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-208_イベント一覧(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64DD91B-5D4C-4E77-AB8A-26A06888B14A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="10575" windowHeight="5715"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="17850" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -18,12 +19,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -1120,29 +1131,11 @@
     <t>2018年08月29日</t>
     <phoneticPr fontId="11"/>
   </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1567,6 +1560,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1579,14 +1611,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1601,39 +1627,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1715,6 +1708,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1736,7 +1732,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1834,52 +1836,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1900,7 +1856,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1987,7 +1949,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2074,7 +2042,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2156,7 +2130,13 @@
     <xdr:ext cx="1210588" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2215,7 +2195,13 @@
     <xdr:ext cx="800219" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2279,7 +2265,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2361,7 +2353,13 @@
     <xdr:ext cx="1005403" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2425,7 +2423,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2512,7 +2516,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2594,7 +2604,13 @@
     <xdr:ext cx="1210588" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2671,7 +2687,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="カギ線コネクタ 29"/>
+        <xdr:cNvPr id="30" name="カギ線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -2721,7 +2743,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="カギ線コネクタ 32"/>
+        <xdr:cNvPr id="33" name="カギ線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="28" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -2766,7 +2794,13 @@
     <xdr:ext cx="1210588" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2843,7 +2877,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2930,7 +2970,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="カギ線コネクタ 53"/>
+        <xdr:cNvPr id="54" name="カギ線コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="53" idx="1"/>
@@ -2975,7 +3021,13 @@
     <xdr:ext cx="1107996" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="テキスト ボックス 56"/>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3052,7 +3104,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="カギ線コネクタ 57"/>
+        <xdr:cNvPr id="58" name="カギ線コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="8" idx="1"/>
@@ -3102,7 +3160,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="15" idx="1"/>
@@ -3152,7 +3216,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3239,7 +3309,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="カギ線コネクタ 26"/>
+        <xdr:cNvPr id="27" name="カギ線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="24" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3284,7 +3360,13 @@
     <xdr:ext cx="697627" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3348,7 +3430,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -3387,7 +3475,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3429,7 +3517,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3462,9 +3550,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3497,6 +3602,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3672,7 +3794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3781,58 +3903,47 @@
       <c r="R32" s="20"/>
       <c r="S32" s="21"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="22"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="21"/>
       <c r="S37" s="23"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="22"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="22"/>
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>110</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="24"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="22"/>
-      <c r="R39" s="22" t="s">
-        <v>111</v>
-      </c>
+      <c r="R39" s="22"/>
       <c r="S39" s="21"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4295,17 +4406,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -4846,6 +4954,24 @@
     <row r="37" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:Y18"/>
+    <mergeCell ref="Z18:AH18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:Y20"/>
+    <mergeCell ref="Z20:AH20"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:Y16"/>
+    <mergeCell ref="Z16:AH16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:Y17"/>
+    <mergeCell ref="Z17:AH17"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:Y14"/>
+    <mergeCell ref="Z14:AH14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:Y15"/>
+    <mergeCell ref="Z15:AH15"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="I24:Y24"/>
     <mergeCell ref="Z24:AH24"/>
@@ -4861,24 +4987,6 @@
     <mergeCell ref="I22:Y22"/>
     <mergeCell ref="Z22:AH22"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:Y14"/>
-    <mergeCell ref="Z14:AH14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:Y15"/>
-    <mergeCell ref="Z15:AH15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:Y16"/>
-    <mergeCell ref="Z16:AH16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:Y17"/>
-    <mergeCell ref="Z17:AH17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:Y18"/>
-    <mergeCell ref="Z18:AH18"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:Y20"/>
-    <mergeCell ref="Z20:AH20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -4895,7 +5003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AX29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -4911,31 +5019,31 @@
       </c>
     </row>
     <row r="3" spans="1:49" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
       <c r="T3" s="28" t="s">
         <v>13</v>
       </c>
@@ -4965,1221 +5073,1221 @@
       <c r="AL3" s="29"/>
       <c r="AM3" s="29"/>
       <c r="AN3" s="30"/>
-      <c r="AO3" s="42" t="s">
+      <c r="AO3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="41" t="s">
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="43" t="s">
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="53"/>
+      <c r="AU3" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="45"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="56"/>
     </row>
     <row r="4" spans="1:49" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="34" t="s">
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="34" t="s">
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="34" t="s">
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="34" t="s">
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="37" t="s">
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="52" t="s">
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="54" t="s">
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="56"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="39"/>
     </row>
     <row r="5" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="34" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="34" t="s">
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="34" t="s">
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="37" t="s">
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="AP5" s="37"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="51" t="s">
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="48" t="s">
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="50"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="36"/>
     </row>
     <row r="6" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="34" t="s">
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="34" t="s">
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="34" t="s">
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="34" t="s">
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="37" t="s">
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="AP6" s="37"/>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="51" t="s">
+      <c r="AP6" s="50"/>
+      <c r="AQ6" s="50"/>
+      <c r="AR6" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="48" t="s">
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AV6" s="49"/>
-      <c r="AW6" s="50"/>
+      <c r="AV6" s="35"/>
+      <c r="AW6" s="36"/>
     </row>
     <row r="7" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="34" t="s">
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="34" t="s">
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="34" t="s">
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="34" t="s">
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="37" t="s">
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="AP7" s="37"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="51" t="s">
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="AS7" s="47"/>
-      <c r="AT7" s="47"/>
-      <c r="AU7" s="48" t="s">
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AV7" s="49"/>
-      <c r="AW7" s="50"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="36"/>
     </row>
     <row r="8" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40" t="s">
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="34" t="s">
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="34" t="s">
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="34" t="s">
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="34" t="s">
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="37" t="s">
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="51" t="s">
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="AS8" s="47"/>
-      <c r="AT8" s="47"/>
-      <c r="AU8" s="48" t="s">
+      <c r="AS8" s="41"/>
+      <c r="AT8" s="41"/>
+      <c r="AU8" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AV8" s="49"/>
-      <c r="AW8" s="50"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="36"/>
     </row>
     <row r="9" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="34" t="s">
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="34" t="s">
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="34" t="s">
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="34" t="s">
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="37" t="s">
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="51" t="s">
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="AS9" s="47"/>
-      <c r="AT9" s="47"/>
-      <c r="AU9" s="48" t="s">
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="AV9" s="49"/>
-      <c r="AW9" s="50"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="36"/>
     </row>
     <row r="10" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="34" t="s">
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="34" t="s">
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="34" t="s">
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="34" t="s">
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="46" t="s">
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="46"/>
-      <c r="AR10" s="51" t="s">
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AS10" s="47"/>
-      <c r="AT10" s="47"/>
-      <c r="AU10" s="48" t="s">
+      <c r="AS10" s="41"/>
+      <c r="AT10" s="41"/>
+      <c r="AU10" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="AV10" s="49"/>
-      <c r="AW10" s="50"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="36"/>
     </row>
     <row r="11" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40" t="s">
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="34" t="s">
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="34" t="s">
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="34" t="s">
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="34" t="s">
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="46" t="s">
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="AP11" s="46"/>
-      <c r="AQ11" s="46"/>
-      <c r="AR11" s="51" t="s">
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="AS11" s="47"/>
-      <c r="AT11" s="47"/>
-      <c r="AU11" s="48" t="s">
+      <c r="AS11" s="41"/>
+      <c r="AT11" s="41"/>
+      <c r="AU11" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AV11" s="49"/>
-      <c r="AW11" s="50"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="36"/>
     </row>
     <row r="12" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="34" t="s">
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="34" t="s">
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="34" t="s">
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="34" t="s">
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="37" t="s">
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AP12" s="37"/>
-      <c r="AQ12" s="37"/>
-      <c r="AR12" s="47" t="s">
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AS12" s="47"/>
-      <c r="AT12" s="47"/>
-      <c r="AU12" s="48" t="s">
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="41"/>
+      <c r="AU12" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="50"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="36"/>
     </row>
     <row r="13" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47"/>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="49"/>
-      <c r="AW13" s="50"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="34"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="36"/>
     </row>
     <row r="14" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="47"/>
-      <c r="AS14" s="47"/>
-      <c r="AT14" s="47"/>
-      <c r="AU14" s="48"/>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="50"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="41"/>
+      <c r="AU14" s="34"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="36"/>
     </row>
     <row r="15" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="47"/>
-      <c r="AS15" s="47"/>
-      <c r="AT15" s="47"/>
-      <c r="AU15" s="48"/>
-      <c r="AV15" s="49"/>
-      <c r="AW15" s="50"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="47"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="35"/>
+      <c r="AW15" s="36"/>
     </row>
     <row r="16" spans="1:49" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="47"/>
-      <c r="AS16" s="47"/>
-      <c r="AT16" s="47"/>
-      <c r="AU16" s="48"/>
-      <c r="AV16" s="49"/>
-      <c r="AW16" s="50"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="49"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="41"/>
+      <c r="AT16" s="41"/>
+      <c r="AU16" s="34"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="36"/>
     </row>
     <row r="17" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="47"/>
-      <c r="AS17" s="47"/>
-      <c r="AT17" s="47"/>
-      <c r="AU17" s="48"/>
-      <c r="AV17" s="49"/>
-      <c r="AW17" s="50"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="41"/>
+      <c r="AT17" s="41"/>
+      <c r="AU17" s="34"/>
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="36"/>
     </row>
     <row r="18" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="47"/>
-      <c r="AS18" s="47"/>
-      <c r="AT18" s="47"/>
-      <c r="AU18" s="48"/>
-      <c r="AV18" s="49"/>
-      <c r="AW18" s="50"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="41"/>
+      <c r="AT18" s="41"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="36"/>
     </row>
     <row r="19" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="37"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
-      <c r="AT19" s="47"/>
-      <c r="AU19" s="48"/>
-      <c r="AV19" s="49"/>
-      <c r="AW19" s="50"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="41"/>
+      <c r="AS19" s="41"/>
+      <c r="AT19" s="41"/>
+      <c r="AU19" s="34"/>
+      <c r="AV19" s="35"/>
+      <c r="AW19" s="36"/>
     </row>
     <row r="20" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="35"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="47"/>
-      <c r="AS20" s="47"/>
-      <c r="AT20" s="47"/>
-      <c r="AU20" s="48"/>
-      <c r="AV20" s="49"/>
-      <c r="AW20" s="50"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="50"/>
+      <c r="AP20" s="50"/>
+      <c r="AQ20" s="50"/>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="41"/>
+      <c r="AT20" s="41"/>
+      <c r="AU20" s="34"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="36"/>
     </row>
     <row r="21" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="47"/>
-      <c r="AS21" s="47"/>
-      <c r="AT21" s="47"/>
-      <c r="AU21" s="48"/>
-      <c r="AV21" s="49"/>
-      <c r="AW21" s="50"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="50"/>
+      <c r="AP21" s="50"/>
+      <c r="AQ21" s="50"/>
+      <c r="AR21" s="41"/>
+      <c r="AS21" s="41"/>
+      <c r="AT21" s="41"/>
+      <c r="AU21" s="34"/>
+      <c r="AV21" s="35"/>
+      <c r="AW21" s="36"/>
     </row>
     <row r="22" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="37"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="47"/>
-      <c r="AS22" s="47"/>
-      <c r="AT22" s="47"/>
-      <c r="AU22" s="48"/>
-      <c r="AV22" s="49"/>
-      <c r="AW22" s="50"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="47"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="49"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="41"/>
+      <c r="AS22" s="41"/>
+      <c r="AT22" s="41"/>
+      <c r="AU22" s="34"/>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="36"/>
     </row>
     <row r="23" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="37"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="47"/>
-      <c r="AS23" s="47"/>
-      <c r="AT23" s="47"/>
-      <c r="AU23" s="48"/>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="50"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="50"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="34"/>
+      <c r="AV23" s="35"/>
+      <c r="AW23" s="36"/>
     </row>
     <row r="24" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -6291,21 +6399,177 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="AU16:AW16"/>
-    <mergeCell ref="AU17:AW17"/>
-    <mergeCell ref="AU18:AW18"/>
-    <mergeCell ref="AU19:AW19"/>
-    <mergeCell ref="AU20:AW20"/>
-    <mergeCell ref="AU21:AW21"/>
-    <mergeCell ref="AU4:AW4"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AU7:AW7"/>
-    <mergeCell ref="AU8:AW8"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AU10:AW10"/>
-    <mergeCell ref="AU11:AW11"/>
-    <mergeCell ref="AU12:AW12"/>
+    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="AO7:AQ7"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:S7"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AW3"/>
+    <mergeCell ref="AJ8:AN8"/>
+    <mergeCell ref="AO8:AQ8"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="AE8:AI8"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AJ10:AN10"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="AJ9:AN9"/>
+    <mergeCell ref="AO9:AQ9"/>
+    <mergeCell ref="Y9:AD9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:S9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="AJ12:AN12"/>
+    <mergeCell ref="AO12:AQ12"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="AJ11:AN11"/>
+    <mergeCell ref="AO11:AQ11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="AJ14:AN14"/>
+    <mergeCell ref="AO14:AQ14"/>
+    <mergeCell ref="Y14:AD14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="AJ13:AN13"/>
+    <mergeCell ref="AO13:AQ13"/>
+    <mergeCell ref="Y13:AD13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="AJ15:AN15"/>
+    <mergeCell ref="AO15:AQ15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:S4"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="Y6:AD6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="AJ5:AN5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:S5"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="I18:S18"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="AJ18:AN18"/>
+    <mergeCell ref="AO18:AQ18"/>
+    <mergeCell ref="Y18:AD18"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="AJ17:AN17"/>
+    <mergeCell ref="AO17:AQ17"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="I17:S17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="AJ16:AN16"/>
+    <mergeCell ref="AO16:AQ16"/>
+    <mergeCell ref="Y16:AD16"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="I16:S16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I19:S19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="AJ19:AN19"/>
+    <mergeCell ref="AO19:AQ19"/>
+    <mergeCell ref="Y19:AD19"/>
+    <mergeCell ref="AR19:AT19"/>
+    <mergeCell ref="AJ21:AN21"/>
+    <mergeCell ref="AO21:AQ21"/>
+    <mergeCell ref="Y21:AD21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:S21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="I20:S20"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="AJ20:AN20"/>
+    <mergeCell ref="AO20:AQ20"/>
+    <mergeCell ref="Y20:AD20"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I23:S23"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="AJ23:AN23"/>
+    <mergeCell ref="AO23:AQ23"/>
+    <mergeCell ref="Y23:AD23"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:S22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="AJ22:AN22"/>
+    <mergeCell ref="AO22:AQ22"/>
+    <mergeCell ref="Y22:AD22"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="AU22:AW22"/>
     <mergeCell ref="AU23:AW23"/>
     <mergeCell ref="AR9:AT9"/>
@@ -6330,177 +6594,21 @@
     <mergeCell ref="AU13:AW13"/>
     <mergeCell ref="AU14:AW14"/>
     <mergeCell ref="AU15:AW15"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I23:S23"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="AJ23:AN23"/>
-    <mergeCell ref="AO23:AQ23"/>
-    <mergeCell ref="Y23:AD23"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:S22"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="AJ22:AN22"/>
-    <mergeCell ref="AO22:AQ22"/>
-    <mergeCell ref="Y22:AD22"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="AJ21:AN21"/>
-    <mergeCell ref="AO21:AQ21"/>
-    <mergeCell ref="Y21:AD21"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I21:S21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="I20:S20"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="AJ20:AN20"/>
-    <mergeCell ref="AO20:AQ20"/>
-    <mergeCell ref="Y20:AD20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I19:S19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="AJ19:AN19"/>
-    <mergeCell ref="AO19:AQ19"/>
-    <mergeCell ref="Y19:AD19"/>
-    <mergeCell ref="AR19:AT19"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="I18:S18"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="AJ18:AN18"/>
-    <mergeCell ref="AO18:AQ18"/>
-    <mergeCell ref="Y18:AD18"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="AJ17:AN17"/>
-    <mergeCell ref="AO17:AQ17"/>
-    <mergeCell ref="Y17:AD17"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="I17:S17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="AJ16:AN16"/>
-    <mergeCell ref="AO16:AQ16"/>
-    <mergeCell ref="Y16:AD16"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="I16:S16"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:S4"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="Y6:AD6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="AE5:AI5"/>
-    <mergeCell ref="AJ5:AN5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:S5"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="AJ15:AN15"/>
-    <mergeCell ref="AO15:AQ15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AJ14:AN14"/>
-    <mergeCell ref="AO14:AQ14"/>
-    <mergeCell ref="Y14:AD14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="AJ13:AN13"/>
-    <mergeCell ref="AO13:AQ13"/>
-    <mergeCell ref="Y13:AD13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="AJ12:AN12"/>
-    <mergeCell ref="AO12:AQ12"/>
-    <mergeCell ref="Y12:AD12"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="AJ11:AN11"/>
-    <mergeCell ref="AO11:AQ11"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="AJ10:AN10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="Y10:AD10"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:S10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="AE10:AI10"/>
-    <mergeCell ref="AJ9:AN9"/>
-    <mergeCell ref="AO9:AQ9"/>
-    <mergeCell ref="Y9:AD9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:S9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="AJ7:AN7"/>
-    <mergeCell ref="AO7:AQ7"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:S7"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AW3"/>
-    <mergeCell ref="AJ8:AN8"/>
-    <mergeCell ref="AO8:AQ8"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="I8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="AE8:AI8"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AU16:AW16"/>
+    <mergeCell ref="AU17:AW17"/>
+    <mergeCell ref="AU18:AW18"/>
+    <mergeCell ref="AU19:AW19"/>
+    <mergeCell ref="AU20:AW20"/>
+    <mergeCell ref="AU21:AW21"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AU7:AW7"/>
+    <mergeCell ref="AU8:AW8"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AU10:AW10"/>
+    <mergeCell ref="AU11:AW11"/>
+    <mergeCell ref="AU12:AW12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
